--- a/biology/Zoologie/Commandeur_huppé/Commandeur_huppé.xlsx
+++ b/biology/Zoologie/Commandeur_huppé/Commandeur_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commandeur_hupp%C3%A9</t>
+          <t>Commandeur_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gubernatrix cristata
 Le Commandeur huppé (Gubernatrix cristata), également appelé bruant commandeur, cardinal vert ou cardinal jaune, est une espèce de passereau appartenant à la famille des Thraupidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commandeur_hupp%C3%A9</t>
+          <t>Commandeur_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 19 cm de longueur. Il présente un dimorphisme sexuel.
 Le mâle est huppé, le menton et la gorge noirs, les sourcils et les côtés de la gorge jaune vif, le dessus du corps vert olive avec le manteau strié de noir, la poitrine jaune verdâtre, l'abdomen et le dessous de la queue plus clairs et la queue jaune avec les deux rectrices médianes noires.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commandeur_hupp%C3%A9</t>
+          <t>Commandeur_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Répartition  et habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers le nord-est de l'Argentine, l'Uruguay et le Rio Grande do Sul.
 Cet oiseau fréquente les milieux arbustifs (notamment de Prosopis), les steppes broussailleuses et les savanes jusqu'à 700 m d'altitude.
